--- a/data/helpdoc/DND/16_斯翠海文：混沌研习SCC.xlsx
+++ b/data/helpdoc/DND/16_斯翠海文：混沌研习SCC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300" activeTab="1"/>
+    <workbookView windowWidth="18530" windowHeight="7270" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SCC专长" sheetId="3" r:id="rId1"/>
@@ -460,7 +460,7 @@
 啃咬Bite。近战武器攻击：命中+4，触及5尺，单一目标。伤害：4（1d4+2）穿刺伤害。</t>
   </si>
   <si>
-    <t>5e 银光锐语</t>
+    <t>银光锐语</t>
   </si>
   <si>
     <t>银光锐语 Silvery Barbs
@@ -474,7 +474,7 @@
 之后你能选择范围内的一个不同生物（可以是你自己）。选择的生物在接下来的一分钟里的第一次攻击检定，属性检定，或豁免检定中具有优势。一个生物在同一时间里只会拥有一次来自该法术的增益。</t>
   </si>
   <si>
-    <t>5e 借鉴才学</t>
+    <t>借鉴才学</t>
   </si>
   <si>
     <t>借鉴才学 Borrowed Knowledge
@@ -487,7 +487,7 @@
 你从往昔的精魄中获取知识。选择一项你没有熟练的技能。在法术的持续时间里，你拥有所选技能的熟练项。如果你再次施放该法术，该法术会提前结束。</t>
   </si>
   <si>
-    <t>5e 动力短行</t>
+    <t>动力短行</t>
   </si>
   <si>
     <t>动力短行 Kinetic Jaunt
@@ -503,7 +503,7 @@
 ·你能穿过另一个生物的空间，而且对你言不算是困难地形。如果你在另一个生物的空间里结束回合，你会被推挤到你最后所经过的未被占据空间里，并受到1d8力场伤害。</t>
   </si>
   <si>
-    <t>5e 涡旋翘曲</t>
+    <t>涡旋翘曲</t>
   </si>
   <si>
     <t>涡旋翘曲 Vortex Warp
@@ -517,7 +517,7 @@
 升环施法效应:当你使用3环或更高的法术位施放该法术时，法术位每比2环高1环，施法距离增加30尺。</t>
   </si>
   <si>
-    <t>5e 靡与华</t>
+    <t>靡与华</t>
   </si>
   <si>
     <t>靡与华 Wither and Bloom
@@ -613,7 +613,14 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1079,10 +1086,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1091,34 +1098,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1130,94 +1134,97 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1226,7 +1233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1584,12 +1591,12 @@
       <selection activeCell="A5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81481481481481" defaultRowHeight="14.4" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.4" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.7314814814815" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.7037037037037" style="5"/>
-    <col min="3" max="3" width="71.0925925925926" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="9.7037037037037" style="5"/>
+    <col min="1" max="1" width="18.7272727272727" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.7" style="5"/>
+    <col min="3" max="3" width="71.0909090909091" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="9.7" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:6">
@@ -1727,16 +1734,16 @@
   <sheetPr/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.7314814814815" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.7272727272727" style="5" customWidth="1"/>
     <col min="2" max="2" width="12" style="5" customWidth="1"/>
-    <col min="3" max="3" width="93.2222222222222" style="5" customWidth="1"/>
-    <col min="4" max="4" width="29.3333333333333" style="5" customWidth="1"/>
+    <col min="3" max="3" width="93.2181818181818" style="5" customWidth="1"/>
+    <col min="4" max="4" width="29.3363636363636" style="5" customWidth="1"/>
     <col min="5" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -1768,6 +1775,7 @@
       <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="D2" s="1"/>
       <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1780,6 +1788,7 @@
       <c r="C3" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="D3" s="1"/>
       <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1792,6 +1801,7 @@
       <c r="C4" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="D4" s="1"/>
       <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1804,6 +1814,7 @@
       <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="D5" s="1"/>
       <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1845,16 +1856,16 @@
   <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81481481481481" defaultRowHeight="14.4" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.4" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="17.9074074074074" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.69444444444444" style="2"/>
+    <col min="1" max="1" width="17.9090909090909" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.69090909090909" style="2"/>
     <col min="3" max="3" width="90" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.69444444444444" style="2"/>
+    <col min="4" max="16384" width="9.69090909090909" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:6">
